--- a/user-data/kenya-agri-percent/kenya-agri-percent.xlsx
+++ b/user-data/kenya-agri-percent/kenya-agri-percent.xlsx
@@ -262,7 +262,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 32</t>
+    <t xml:space="preserve">Source: 33</t>
   </si>
   <si>
     <t xml:space="preserve"/>

--- a/user-data/kenya-agri-percent/kenya-agri-percent.xlsx
+++ b/user-data/kenya-agri-percent/kenya-agri-percent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t xml:space="preserve">district_id</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Baringo</t>
   </si>
   <si>
-    <t xml:space="preserve">estimated</t>
+    <t xml:space="preserve">actual</t>
   </si>
   <si>
     <t xml:space="preserve">d18975</t>
@@ -64,7 +64,10 @@
     <t xml:space="preserve">Elgeyo-Marakwet</t>
   </si>
   <si>
-    <t xml:space="preserve">actual</t>
+    <t xml:space="preserve">d18955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embu</t>
   </si>
   <si>
     <t xml:space="preserve">d18965</t>
@@ -79,12 +82,30 @@
     <t xml:space="preserve">Homa Bay</t>
   </si>
   <si>
+    <t xml:space="preserve">d18956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isiolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kajiado</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18989</t>
   </si>
   <si>
     <t xml:space="preserve">Kakamega</t>
   </si>
   <si>
+    <t xml:space="preserve">d18977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kericho</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18943</t>
   </si>
   <si>
@@ -127,24 +148,48 @@
     <t xml:space="preserve">Kwale</t>
   </si>
   <si>
+    <t xml:space="preserve">d18978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laikipia</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18951</t>
   </si>
   <si>
     <t xml:space="preserve">Lamu</t>
   </si>
   <si>
+    <t xml:space="preserve">d18958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machakos</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18959</t>
   </si>
   <si>
     <t xml:space="preserve">Makueni</t>
   </si>
   <si>
+    <t xml:space="preserve">d18966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandera</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18960</t>
   </si>
   <si>
     <t xml:space="preserve">Marsabit</t>
   </si>
   <si>
+    <t xml:space="preserve">d18961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meru</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18971</t>
   </si>
   <si>
@@ -175,6 +220,12 @@
     <t xml:space="preserve">Nakuru</t>
   </si>
   <si>
+    <t xml:space="preserve">d18980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nandi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18981</t>
   </si>
   <si>
@@ -187,6 +238,12 @@
     <t xml:space="preserve">Nithi</t>
   </si>
   <si>
+    <t xml:space="preserve">d18972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyamira</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18947</t>
   </si>
   <si>
@@ -217,6 +274,12 @@
     <t xml:space="preserve">Taita Taveta</t>
   </si>
   <si>
+    <t xml:space="preserve">d18954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tana River</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18983</t>
   </si>
   <si>
@@ -235,15 +298,24 @@
     <t xml:space="preserve">Uasin Gishu</t>
   </si>
   <si>
+    <t xml:space="preserve">d18990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vihiga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wajir</t>
+  </si>
+  <si>
     <t xml:space="preserve">d18986</t>
   </si>
   <si>
     <t xml:space="preserve">West Pokot</t>
   </si>
   <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
     <t xml:space="preserve">2015</t>
   </si>
   <si>
@@ -253,6 +325,9 @@
     <t xml:space="preserve">2017</t>
   </si>
   <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name: kenya-agri-percent</t>
   </si>
   <si>
@@ -262,7 +337,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 33</t>
+    <t xml:space="preserve">Source: 34</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -620,77 +695,77 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -732,13 +807,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>8.0592021327</v>
+        <v>7.77510754367835</v>
       </c>
     </row>
     <row r="3">
@@ -749,72 +824,72 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>12.6585006283</v>
+        <v>6.65468009503944</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>19.4419661335</v>
+        <v>5.97788044239115</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>7.2260624958</v>
+        <v>6.96838928561131</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>9.7943611192</v>
+        <v>7.90747311608684</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
         <v>2016</v>
@@ -823,117 +898,117 @@
         <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>6.8708504212</v>
+        <v>6.45983825260754</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>9.1308939853</v>
+        <v>8.83828528441903</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>7.4026846632</v>
+        <v>7.1562970523146</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>8.396121134</v>
+        <v>9.14378725470849</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>7.7116248176</v>
+        <v>8.74491539556591</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>7.1497833712</v>
+        <v>7.73008514604956</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>6.0281329168</v>
+        <v>7.29391399459135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
         <v>2015</v>
@@ -942,15 +1017,15 @@
         <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>10.0781978367</v>
+        <v>6.10131973437194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
         <v>2016</v>
@@ -959,270 +1034,270 @@
         <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>7.6224469609</v>
+        <v>6.53809041593786</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>6.7966567265</v>
+        <v>6.17965110347876</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>5.9989371405</v>
+        <v>4.84191968927974</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>8.9463409043</v>
+        <v>8.02904625557163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>7.1532303955</v>
+        <v>7.61905087691092</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>3.6557811309</v>
+        <v>7.64475317049547</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>5.1961325606</v>
+        <v>6.94067608283333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C22" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>5.0645357438</v>
+        <v>1.20621012827323</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C23" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>11.8251039587</v>
+        <v>7.94734620953863</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C24" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>6.4440246506</v>
+        <v>5.88481446304454</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C25" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>9.469834997</v>
+        <v>5.76327433628319</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C26" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>17.1771925504</v>
+        <v>2.94108729268367</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C27" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>8.072796139</v>
+        <v>1.9904069412196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C28" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>7.3723347826</v>
+        <v>1.88109777497017</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C29" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>5.4107173675</v>
+        <v>3.6226816451309</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C30" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>5.5813437976</v>
+        <v>4.61308819100189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C31" t="n">
         <v>2016</v>
@@ -1231,200 +1306,200 @@
         <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>2.7449729686</v>
+        <v>4.36357278016976</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C32" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>3.3914584203</v>
+        <v>3.56246601698105</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C33" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>1.0963811689</v>
+        <v>2.59664288532288</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C34" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
-      <c r="E34" t="n">
-        <v>1.4838760979</v>
-      </c>
+      <c r="E34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C35" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>6.5447008313</v>
+        <v>1.89056473574606</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C36" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36" t="n">
-        <v>6.0602111666</v>
+        <v>2.0755440788306</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C37" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37" t="n">
-        <v>4.4652985917</v>
+        <v>1.42580742094434</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C38" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>4.4804263658</v>
+        <v>3.96599191712405</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C39" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>13.4614083378</v>
+        <v>4.85161516239167</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C40" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
-      <c r="E40"/>
+      <c r="E40" t="n">
+        <v>4.8781981505005</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C41" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>5.3358354793</v>
+        <v>5.02871110562273</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C42" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>7.7996558571</v>
+        <v>5.76456902297093</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="C43" t="n">
         <v>2016</v>
@@ -1433,15 +1508,15 @@
         <v>7</v>
       </c>
       <c r="E43" t="n">
-        <v>7.3337049586</v>
+        <v>4.51095065289413</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="C44" t="n">
         <v>2017</v>
@@ -1450,228 +1525,2442 @@
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>5.8139560276</v>
+        <v>3.64477294857042</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="C45" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>7.2909657318</v>
+        <v>2.4162786065877</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C46" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
       </c>
       <c r="E46" t="n">
-        <v>6.9346604877</v>
+        <v>6.1076174101553</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C47" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
       </c>
       <c r="E47" t="n">
-        <v>12.4202630304</v>
+        <v>4.99447252053064</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C48" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>5.4809531227</v>
+        <v>5.4045030085525</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C49" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>6.8286022967</v>
+        <v>5.16870341965869</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C50" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>9.3746929342</v>
+        <v>5.59954551106619</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C51" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>6.3414638394</v>
+        <v>4.43798274906351</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C52" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
       </c>
       <c r="E52" t="n">
-        <v>14.3153871931</v>
+        <v>4.20456973409042</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C53" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>7.9518220427</v>
+        <v>0.538782310643216</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C54" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>17.170318154</v>
+        <v>5.67764423428441</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C55" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
       </c>
       <c r="E55" t="n">
-        <v>9.7344793764</v>
+        <v>6.68940746408229</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C56" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
       </c>
       <c r="E56" t="n">
-        <v>10.0293024487</v>
+        <v>5.71679099311581</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.05122462409073</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.92939876229619</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="n">
+        <v>6.29892164084482</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="n">
+        <v>7.44247710505184</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5.34695987076991</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4.96674206864486</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.50390658452176</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.84170902410711</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5.5765014016111</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.82717558948992</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2.91469271583027</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="n">
+        <v>5.11666678853733</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.4789476151046</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" t="n">
+        <v>8.94904259406524</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="n">
+        <v>5.97610523213021</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4.61331081023436</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.81082775380347</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3.06566759100832</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2.16343024245641</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.991368513117058</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.11736388300674</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="n">
+        <v>5.46350384093464</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" t="n">
+        <v>4.36287148866875</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.77772427215634</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2.38671706315897</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" t="n">
+        <v>5.54932988584913</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>48</v>
+      </c>
+      <c r="B87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" t="n">
+        <v>5.73868652099828</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>50</v>
+      </c>
+      <c r="B91" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="n">
+        <v>5.59814739136357</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>50</v>
+      </c>
+      <c r="B92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="n">
+        <v>9.10293179833926</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>50</v>
+      </c>
+      <c r="B93" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="n">
+        <v>7.60187913493078</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>52</v>
+      </c>
+      <c r="B94" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4.58903562844244</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>52</v>
+      </c>
+      <c r="B95" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4.00797281537949</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>52</v>
+      </c>
+      <c r="B96" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4.56244269119688</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>52</v>
+      </c>
+      <c r="B97" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4.54437738286476</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4.51236799044654</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" t="n">
+        <v>5.13236313761447</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>54</v>
+      </c>
+      <c r="B100" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4.58471804073604</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>54</v>
+      </c>
+      <c r="B101" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4.71233285523307</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>56</v>
+      </c>
+      <c r="B102" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" t="n">
+        <v>5.66040451335585</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>56</v>
+      </c>
+      <c r="B103" t="s">
+        <v>57</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" t="n">
+        <v>5.22123266940994</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>56</v>
+      </c>
+      <c r="B104" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="n">
+        <v>5.82487619905945</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>56</v>
+      </c>
+      <c r="B105" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4.66737937088902</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>58</v>
+      </c>
+      <c r="B106" t="s">
+        <v>59</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2.98367711121608</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>58</v>
+      </c>
+      <c r="B107" t="s">
+        <v>59</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>58</v>
+      </c>
+      <c r="B108" t="s">
+        <v>59</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="n">
+        <v>7.67713895698877</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>58</v>
+      </c>
+      <c r="B109" t="s">
+        <v>59</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>60</v>
+      </c>
+      <c r="B110" t="s">
+        <v>61</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.26803238596747</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>60</v>
+      </c>
+      <c r="B111" t="s">
+        <v>61</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.2874120104622</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>60</v>
+      </c>
+      <c r="B112" t="s">
+        <v>61</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.27704720060174</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>60</v>
+      </c>
+      <c r="B113" t="s">
+        <v>61</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.88480892733725</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>62</v>
+      </c>
+      <c r="B114" t="s">
+        <v>63</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" t="n">
+        <v>17.5422086908386</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>62</v>
+      </c>
+      <c r="B115" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4.8127855844652</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>62</v>
+      </c>
+      <c r="B116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" t="n">
+        <v>5.61879502638231</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>62</v>
+      </c>
+      <c r="B117" t="s">
+        <v>63</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" t="n">
+        <v>6.20263587672048</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>64</v>
+      </c>
+      <c r="B118" t="s">
+        <v>65</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.29374868891285</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>64</v>
+      </c>
+      <c r="B119" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.16972004961791</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>64</v>
+      </c>
+      <c r="B120" t="s">
+        <v>65</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.52482133985554</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>64</v>
+      </c>
+      <c r="B121" t="s">
+        <v>65</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.2782414136364</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>66</v>
+      </c>
+      <c r="B122" t="s">
+        <v>67</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" t="n">
+        <v>5.36970672127551</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>66</v>
+      </c>
+      <c r="B123" t="s">
+        <v>67</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" t="n">
+        <v>5.87091742412571</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>66</v>
+      </c>
+      <c r="B124" t="s">
+        <v>67</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" t="n">
+        <v>5.6079630656002</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>66</v>
+      </c>
+      <c r="B125" t="s">
+        <v>67</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" t="n">
+        <v>5.12992280518121</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>68</v>
+      </c>
+      <c r="B126" t="s">
+        <v>69</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>5.46530069870119</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>68</v>
+      </c>
+      <c r="B127" t="s">
+        <v>69</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" t="n">
+        <v>5.67472870700356</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>68</v>
+      </c>
+      <c r="B128" t="s">
+        <v>69</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" t="n">
+        <v>5.23962280680499</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>68</v>
+      </c>
+      <c r="B129" t="s">
+        <v>69</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4.89235933737138</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>70</v>
+      </c>
+      <c r="B130" t="s">
+        <v>71</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.89172832516643</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>70</v>
+      </c>
+      <c r="B131" t="s">
+        <v>71</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4.09040047521032</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>70</v>
+      </c>
+      <c r="B132" t="s">
+        <v>71</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.9012364675643</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>70</v>
+      </c>
+      <c r="B133" t="s">
+        <v>71</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" t="n">
+        <v>6.11425807648156</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>72</v>
+      </c>
+      <c r="B134" t="s">
         <v>73</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C134" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" t="n">
+        <v>10.1498519227854</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>72</v>
+      </c>
+      <c r="B135" t="s">
+        <v>73</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9.16646886033884</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>72</v>
+      </c>
+      <c r="B136" t="s">
+        <v>73</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>7.60678337611398</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>72</v>
+      </c>
+      <c r="B137" t="s">
+        <v>73</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" t="n">
+        <v>9.12920694311673</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
         <v>74</v>
       </c>
-      <c r="C57" t="n">
+      <c r="B138" t="s">
+        <v>75</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" t="n">
+        <v>5.45048374554517</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>74</v>
+      </c>
+      <c r="B139" t="s">
+        <v>75</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" t="n">
+        <v>7.78056734172055</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>74</v>
+      </c>
+      <c r="B140" t="s">
+        <v>75</v>
+      </c>
+      <c r="C140" t="n">
         <v>2017</v>
       </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" t="n">
-        <v>7.6915547782</v>
+      <c r="D140" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" t="n">
+        <v>5.58581653552752</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>74</v>
+      </c>
+      <c r="B141" t="s">
+        <v>75</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4.27478463043386</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>76</v>
+      </c>
+      <c r="B142" t="s">
+        <v>77</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" t="n">
+        <v>11.0195611706186</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>76</v>
+      </c>
+      <c r="B143" t="s">
+        <v>77</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" t="n">
+        <v>6.40387621388102</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>76</v>
+      </c>
+      <c r="B144" t="s">
+        <v>77</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>5.57986870897155</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>76</v>
+      </c>
+      <c r="B145" t="s">
+        <v>77</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.10568111056591</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>78</v>
+      </c>
+      <c r="B146" t="s">
+        <v>79</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" t="n">
+        <v>5.34624978531307</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>78</v>
+      </c>
+      <c r="B147" t="s">
+        <v>79</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>5.94508050629852</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>78</v>
+      </c>
+      <c r="B148" t="s">
+        <v>79</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" t="n">
+        <v>6.03094805462084</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>78</v>
+      </c>
+      <c r="B149" t="s">
+        <v>79</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D149" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" t="n">
+        <v>6.22099046635923</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>80</v>
+      </c>
+      <c r="B150" t="s">
+        <v>81</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" t="n">
+        <v>6.44019471064512</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>80</v>
+      </c>
+      <c r="B151" t="s">
+        <v>81</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6.89819076835661</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>80</v>
+      </c>
+      <c r="B152" t="s">
+        <v>81</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" t="n">
+        <v>4.86861366417893</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>80</v>
+      </c>
+      <c r="B153" t="s">
+        <v>81</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" t="n">
+        <v>6.65789429665851</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>82</v>
+      </c>
+      <c r="B154" t="s">
+        <v>83</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D154" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6.01962274282125</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>82</v>
+      </c>
+      <c r="B155" t="s">
+        <v>83</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" t="n">
+        <v>5.86260717977824</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>82</v>
+      </c>
+      <c r="B156" t="s">
+        <v>83</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" t="n">
+        <v>5.27693706750785</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>82</v>
+      </c>
+      <c r="B157" t="s">
+        <v>83</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D157" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3.87470749351742</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>84</v>
+      </c>
+      <c r="B158" t="s">
+        <v>85</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D158" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.94415612560309</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>84</v>
+      </c>
+      <c r="B159" t="s">
+        <v>85</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D159" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" t="n">
+        <v>3.51006381934217</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>84</v>
+      </c>
+      <c r="B160" t="s">
+        <v>85</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D160" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2.57189701776931</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>84</v>
+      </c>
+      <c r="B161" t="s">
+        <v>85</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D161" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.652574493266018</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>86</v>
+      </c>
+      <c r="B162" t="s">
+        <v>87</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" t="n">
+        <v>7.10183716334181</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>86</v>
+      </c>
+      <c r="B163" t="s">
+        <v>87</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D163" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>86</v>
+      </c>
+      <c r="B164" t="s">
+        <v>87</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>86</v>
+      </c>
+      <c r="B165" t="s">
+        <v>87</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>88</v>
+      </c>
+      <c r="B166" t="s">
+        <v>89</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D166" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>7.99482801183984</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>88</v>
+      </c>
+      <c r="B167" t="s">
+        <v>89</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D167" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" t="n">
+        <v>9.53606846004279</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>88</v>
+      </c>
+      <c r="B168" t="s">
+        <v>89</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" t="n">
+        <v>6.92737374342986</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>88</v>
+      </c>
+      <c r="B169" t="s">
+        <v>89</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" t="n">
+        <v>6.00376258246959</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>90</v>
+      </c>
+      <c r="B170" t="s">
+        <v>91</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>90</v>
+      </c>
+      <c r="B171" t="s">
+        <v>91</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>90</v>
+      </c>
+      <c r="B172" t="s">
+        <v>91</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D172" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>90</v>
+      </c>
+      <c r="B173" t="s">
+        <v>91</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2.43922728093776</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>92</v>
+      </c>
+      <c r="B174" t="s">
+        <v>93</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" t="n">
+        <v>7.45954379888288</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>92</v>
+      </c>
+      <c r="B175" t="s">
+        <v>93</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" t="n">
+        <v>2.61557889594173</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>92</v>
+      </c>
+      <c r="B176" t="s">
+        <v>93</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D176" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" t="n">
+        <v>8.48717566492395</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>92</v>
+      </c>
+      <c r="B177" t="s">
+        <v>93</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" t="n">
+        <v>5.45152719306121</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>94</v>
+      </c>
+      <c r="B178" t="s">
+        <v>95</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>5.76140843302698</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>94</v>
+      </c>
+      <c r="B179" t="s">
+        <v>95</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" t="n">
+        <v>3.42782091140335</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>94</v>
+      </c>
+      <c r="B180" t="s">
+        <v>95</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2.81920414759679</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>94</v>
+      </c>
+      <c r="B181" t="s">
+        <v>95</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" t="n">
+        <v>5.84649845862689</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>96</v>
+      </c>
+      <c r="B182" t="s">
+        <v>97</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D182" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" t="n">
+        <v>4.97183100734387</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>96</v>
+      </c>
+      <c r="B183" t="s">
+        <v>97</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D183" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" t="n">
+        <v>4.7614579681088</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>96</v>
+      </c>
+      <c r="B184" t="s">
+        <v>97</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D184" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" t="n">
+        <v>8.59565031196583</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>96</v>
+      </c>
+      <c r="B185" t="s">
+        <v>97</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" t="n">
+        <v>4.45547237297452</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>98</v>
+      </c>
+      <c r="B186" t="s">
+        <v>99</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D186" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2.61923116010103</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>98</v>
+      </c>
+      <c r="B187" t="s">
+        <v>99</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D187" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" t="n">
+        <v>6.3556458619691</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>98</v>
+      </c>
+      <c r="B188" t="s">
+        <v>99</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D188" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" t="n">
+        <v>5.01362375132959</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>98</v>
+      </c>
+      <c r="B189" t="s">
+        <v>99</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D189" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3.71255584026849</v>
       </c>
     </row>
   </sheetData>
@@ -1693,16 +3982,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
@@ -1710,415 +3999,766 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>8.0592021327</v>
+        <v>7.77510754367835</v>
       </c>
       <c r="C2" t="n">
-        <v>12.6585006283</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2"/>
+        <v>6.65468009503944</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.97788044239115</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.96838928561131</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="n">
+        <v>7.90747311608684</v>
+      </c>
       <c r="C3" t="n">
-        <v>19.4419661335</v>
+        <v>6.45983825260754</v>
       </c>
       <c r="D3" t="n">
-        <v>7.2260624958</v>
-      </c>
-      <c r="E3"/>
+        <v>8.83828528441903</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.1562970523146</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>9.7943611192</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
+        <v>9.14378725470849</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.74491539556591</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.73008514604956</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.29391399459135</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
+      <c r="B5" t="n">
+        <v>6.10131973437194</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.53809041593786</v>
+      </c>
       <c r="D5" t="n">
-        <v>6.8708504212</v>
-      </c>
-      <c r="E5"/>
+        <v>6.17965110347876</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.84191968927974</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>9.1308939853</v>
+        <v>8.02904625557163</v>
       </c>
       <c r="C6" t="n">
-        <v>7.4026846632</v>
+        <v>7.61905087691092</v>
       </c>
       <c r="D6" t="n">
-        <v>8.396121134</v>
+        <v>7.64475317049547</v>
       </c>
       <c r="E6" t="n">
-        <v>7.7116248176</v>
+        <v>6.94067608283333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>7.1497833712</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
+        <v>1.20621012827323</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.94734620953863</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.88481446304454</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.76327433628319</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8"/>
+        <v>18</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.94108729268367</v>
+      </c>
       <c r="C8" t="n">
-        <v>6.0281329168</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8"/>
+        <v>1.9904069412196</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.88109777497017</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.6226816451309</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9"/>
+        <v>20</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.61308819100189</v>
+      </c>
       <c r="C9" t="n">
-        <v>10.0781978367</v>
+        <v>4.36357278016976</v>
       </c>
       <c r="D9" t="n">
-        <v>7.6224469609</v>
-      </c>
-      <c r="E9"/>
+        <v>3.56246601698105</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.59664288532288</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6.7966567265</v>
-      </c>
-      <c r="C10"/>
+        <v>22</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" t="n">
+        <v>1.89056473574606</v>
+      </c>
       <c r="D10" t="n">
-        <v>5.9989371405</v>
-      </c>
-      <c r="E10"/>
+        <v>2.0755440788306</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.42580742094434</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>8.9463409043</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
+        <v>3.96599191712405</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.85161516239167</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.8781981505005</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.02871110562273</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="n">
-        <v>7.1532303955</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
+        <v>5.76456902297093</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.51095065289413</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.64477294857042</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.4162786065877</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="n">
-        <v>3.6557811309</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
+        <v>6.1076174101553</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.99447252053064</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5.4045030085525</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.16870341965869</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14"/>
+        <v>30</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5.59954551106619</v>
+      </c>
       <c r="C14" t="n">
-        <v>5.1961325606</v>
+        <v>4.43798274906351</v>
       </c>
       <c r="D14" t="n">
-        <v>5.0645357438</v>
-      </c>
-      <c r="E14"/>
+        <v>4.20456973409042</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.538782310643216</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15"/>
+        <v>32</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5.67764423428441</v>
+      </c>
       <c r="C15" t="n">
-        <v>11.8251039587</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15"/>
+        <v>6.68940746408229</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5.71679099311581</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.05122462409073</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16"/>
-      <c r="C16"/>
+        <v>34</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.92939876229619</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.29892164084482</v>
+      </c>
       <c r="D16" t="n">
-        <v>6.4440246506</v>
-      </c>
-      <c r="E16"/>
+        <v>7.44247710505184</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.34695987076991</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17"/>
-      <c r="C17"/>
+        <v>36</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.96674206864486</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.50390658452176</v>
+      </c>
       <c r="D17" t="n">
-        <v>9.469834997</v>
-      </c>
-      <c r="E17"/>
+        <v>4.84170902410711</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5.5765014016111</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" t="n">
-        <v>17.1771925504</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
+        <v>1.82717558948992</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.91469271583027</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5.11666678853733</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.4789476151046</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="n">
-        <v>8.072796139</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7.3723347826</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" t="n">
-        <v>5.4107173675</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
+        <v>8.94904259406524</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.97610523213021</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.61331081023436</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.81082775380347</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>5.5813437976</v>
-      </c>
-      <c r="C21"/>
+        <v>3.06566759100832</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.16343024245641</v>
+      </c>
       <c r="D21" t="n">
-        <v>2.7449729686</v>
-      </c>
-      <c r="E21"/>
+        <v>0.991368513117058</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.11736388300674</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22"/>
-      <c r="C22"/>
+        <v>46</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5.46350384093464</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.36287148866875</v>
+      </c>
       <c r="D22" t="n">
-        <v>3.3914584203</v>
-      </c>
-      <c r="E22"/>
+        <v>1.77772427215634</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.38671706315897</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23"/>
+        <v>48</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5.54932988584913</v>
+      </c>
       <c r="C23"/>
-      <c r="D23" t="n">
-        <v>1.0963811689</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1.4838760979</v>
-      </c>
+      <c r="D23"/>
+      <c r="E23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24"/>
+        <v>50</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5.73868652099828</v>
+      </c>
       <c r="C24" t="n">
-        <v>6.5447008313</v>
+        <v>5.59814739136357</v>
       </c>
       <c r="D24" t="n">
-        <v>6.0602111666</v>
-      </c>
-      <c r="E24"/>
+        <v>9.10293179833926</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7.60187913493078</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" t="n">
-        <v>4.4652985917</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
+        <v>4.58903562844244</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.00797281537949</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.56244269119688</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.54437738286476</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26"/>
-      <c r="C26"/>
+        <v>54</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.51236799044654</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.13236313761447</v>
+      </c>
       <c r="D26" t="n">
-        <v>4.4804263658</v>
-      </c>
-      <c r="E26"/>
+        <v>4.58471804073604</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.71233285523307</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27"/>
+        <v>56</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5.66040451335585</v>
+      </c>
       <c r="C27" t="n">
-        <v>13.4614083378</v>
-      </c>
-      <c r="D27"/>
-      <c r="E27"/>
+        <v>5.22123266940994</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.82487619905945</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.66737937088902</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28"/>
+        <v>58</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2.98367711121608</v>
+      </c>
       <c r="C28"/>
       <c r="D28" t="n">
-        <v>5.3358354793</v>
-      </c>
-      <c r="E28" t="n">
-        <v>7.7996558571</v>
-      </c>
+        <v>7.67713895698877</v>
+      </c>
+      <c r="E28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29"/>
-      <c r="C29"/>
+        <v>60</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.26803238596747</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.2874120104622</v>
+      </c>
       <c r="D29" t="n">
-        <v>7.3337049586</v>
+        <v>1.27704720060174</v>
       </c>
       <c r="E29" t="n">
-        <v>5.8139560276</v>
+        <v>1.88480892733725</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30"/>
-      <c r="C30"/>
+        <v>62</v>
+      </c>
+      <c r="B30" t="n">
+        <v>17.5422086908386</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.8127855844652</v>
+      </c>
       <c r="D30" t="n">
-        <v>7.2909657318</v>
+        <v>5.61879502638231</v>
       </c>
       <c r="E30" t="n">
-        <v>6.9346604877</v>
+        <v>6.20263587672048</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31"/>
+        <v>64</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.29374868891285</v>
+      </c>
       <c r="C31" t="n">
-        <v>12.4202630304</v>
+        <v>1.16972004961791</v>
       </c>
       <c r="D31" t="n">
-        <v>5.4809531227</v>
+        <v>1.52482133985554</v>
       </c>
       <c r="E31" t="n">
-        <v>6.8286022967</v>
+        <v>1.2782414136364</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32"/>
-      <c r="C32"/>
+        <v>66</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5.36970672127551</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5.87091742412571</v>
+      </c>
       <c r="D32" t="n">
-        <v>9.3746929342</v>
+        <v>5.6079630656002</v>
       </c>
       <c r="E32" t="n">
-        <v>6.3414638394</v>
+        <v>5.12992280518121</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33"/>
+        <v>68</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5.46530069870119</v>
+      </c>
       <c r="C33" t="n">
-        <v>14.3153871931</v>
-      </c>
-      <c r="D33"/>
-      <c r="E33"/>
+        <v>5.67472870700356</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5.23962280680499</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.89235933737138</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34"/>
+        <v>70</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.89172832516643</v>
+      </c>
       <c r="C34" t="n">
-        <v>7.9518220427</v>
-      </c>
-      <c r="D34"/>
+        <v>4.09040047521032</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.9012364675643</v>
+      </c>
       <c r="E34" t="n">
-        <v>17.170318154</v>
+        <v>6.11425807648156</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35"/>
+        <v>72</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10.1498519227854</v>
+      </c>
       <c r="C35" t="n">
-        <v>9.7344793764</v>
+        <v>9.16646886033884</v>
       </c>
       <c r="D35" t="n">
-        <v>10.0293024487</v>
+        <v>7.60678337611398</v>
       </c>
       <c r="E35" t="n">
-        <v>7.6915547782</v>
+        <v>9.12920694311673</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5.45048374554517</v>
+      </c>
+      <c r="C36" t="n">
+        <v>7.78056734172055</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5.58581653552752</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4.27478463043386</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="n">
+        <v>11.0195611706186</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6.40387621388102</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5.57986870897155</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.10568111056591</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5.34624978531307</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5.94508050629852</v>
+      </c>
+      <c r="D38" t="n">
+        <v>6.03094805462084</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6.22099046635923</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6.44019471064512</v>
+      </c>
+      <c r="C39" t="n">
+        <v>6.89819076835661</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4.86861366417893</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6.65789429665851</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6.01962274282125</v>
+      </c>
+      <c r="C40" t="n">
+        <v>5.86260717977824</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5.27693706750785</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.87470749351742</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.94415612560309</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.51006381934217</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.57189701776931</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.652574493266018</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="n">
+        <v>7.10183716334181</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="n">
+        <v>7.99482801183984</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9.53606846004279</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6.92737374342986</v>
+      </c>
+      <c r="E43" t="n">
+        <v>6.00376258246959</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44" t="n">
+        <v>2.43922728093776</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="n">
+        <v>7.45954379888288</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.61557889594173</v>
+      </c>
+      <c r="D45" t="n">
+        <v>8.48717566492395</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5.45152719306121</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5.76140843302698</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.42782091140335</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.81920414759679</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5.84649845862689</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4.97183100734387</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.7614579681088</v>
+      </c>
+      <c r="D47" t="n">
+        <v>8.59565031196583</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4.45547237297452</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2.61923116010103</v>
+      </c>
+      <c r="C48" t="n">
+        <v>6.3556458619691</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5.01362375132959</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.71255584026849</v>
       </c>
     </row>
   </sheetData>
